--- a/HotelBooking/demo3.xlsx
+++ b/HotelBooking/demo3.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>67W4ACENCG</t>
+          <t>WYT64W6J45</t>
         </is>
       </c>
     </row>

--- a/HotelBooking/demo3.xlsx
+++ b/HotelBooking/demo3.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>WYT64W6J45</t>
+          <t>67W4ACENCG</t>
         </is>
       </c>
     </row>
